--- a/data/trans_dic/P44A$endoscopia-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P44A$endoscopia-Dificultad-trans_dic.xlsx
@@ -664,7 +664,7 @@
         <v>0.5576407610811668</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.4618454223493635</v>
+        <v>0.4618454223493636</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4798299872765374</v>
+        <v>0.4970788829346151</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3816180924025362</v>
+        <v>0.3819441576543187</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3139043708652645</v>
+        <v>0.3105173566932496</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4216175040858166</v>
+        <v>0.4219064394070304</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4023924619686741</v>
+        <v>0.4005064224279854</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4039581544555498</v>
+        <v>0.4091549827793453</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.5148940207577303</v>
+        <v>0.5182963421868104</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4397903801071528</v>
+        <v>0.4463344254085668</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3930152619974928</v>
+        <v>0.4029115990020232</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8670980430599899</v>
+        <v>0.8661879218461638</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6868898873254876</v>
+        <v>0.6820204344018591</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5393137893778484</v>
+        <v>0.5390001202889222</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7690904496242156</v>
+        <v>0.7740910914794134</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7658486077715342</v>
+        <v>0.7606761701983948</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5602238990504192</v>
+        <v>0.5771498419196044</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7740194227431462</v>
+        <v>0.7693282764891852</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6797968434880477</v>
+        <v>0.6734845456975989</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5290405128503446</v>
+        <v>0.5318126662785974</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.5840382906078924</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.4861075511424658</v>
+        <v>0.4861075511424659</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.7225882770076921</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4784431661755646</v>
+        <v>0.4909751587808553</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4113645572108537</v>
+        <v>0.4095767634743181</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.420059316704858</v>
+        <v>0.4126819158227901</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5335394376835303</v>
+        <v>0.5254245527627319</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1767992991391782</v>
+        <v>0.1901052759099395</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3285196510767371</v>
+        <v>0.3320339233751769</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5712086014222821</v>
+        <v>0.5759238208487204</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3640244692427189</v>
+        <v>0.363929239748244</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.390212229677262</v>
+        <v>0.3908550652181616</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8374598348411231</v>
+        <v>0.8448991308816219</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7316035030960378</v>
+        <v>0.7223180014059799</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5604356589168894</v>
+        <v>0.5579507523653079</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8573477415011913</v>
+        <v>0.8639129345696688</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5461200917677869</v>
+        <v>0.5509488385063007</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4502437338490382</v>
+        <v>0.452910075808446</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8140323108822394</v>
+        <v>0.8057417960643118</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6038820973637139</v>
+        <v>0.5906109100624262</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4832601559865286</v>
+        <v>0.4850153477509851</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.5050811334853859</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.4278039601009478</v>
+        <v>0.4278039601009477</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.5609299982350195</v>
@@ -873,7 +873,7 @@
         <v>0.6087921664436166</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.3507980946198931</v>
+        <v>0.3507980946198933</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.5834104303961152</v>
@@ -882,7 +882,7 @@
         <v>0.5503304011408262</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.3939114584377036</v>
+        <v>0.3939114584377035</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4180179343816467</v>
+        <v>0.3942375648762177</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3551881175193545</v>
+        <v>0.3525423676973582</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3662378665380872</v>
+        <v>0.3580734569742209</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3467972361460209</v>
+        <v>0.3276087832382082</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3811424222823472</v>
+        <v>0.3965577104091717</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2927853037250417</v>
+        <v>0.2868947803758559</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4247737173849423</v>
+        <v>0.4345954082714609</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4264622367547521</v>
+        <v>0.4229130341796559</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3507898070116426</v>
+        <v>0.3460084524732792</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7781459441167659</v>
+        <v>0.7763090267510858</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6681533312554797</v>
+        <v>0.6685280947357499</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4981627496173517</v>
+        <v>0.4949849415853549</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7754322306734884</v>
+        <v>0.75242802348023</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.778129644077691</v>
+        <v>0.7774081438068482</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4121470170817075</v>
+        <v>0.4137762200454527</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7256514309309603</v>
+        <v>0.7190108306054013</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6680409696099125</v>
+        <v>0.6675685075724986</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4448849023051594</v>
+        <v>0.4380864606947295</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.4668542766775051</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3977437130949722</v>
+        <v>0.3977437130949724</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.5356503439525496</v>
@@ -982,7 +982,7 @@
         <v>0.7963583275547196</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.2582747738331842</v>
+        <v>0.2582747738331841</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.4797343336618918</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2091581176781861</v>
+        <v>0.212832079618432</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3003339827410804</v>
+        <v>0.2950587155168019</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3307220223290404</v>
+        <v>0.332974992293264</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.270863462620614</v>
+        <v>0.273990253059316</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5106804065449886</v>
+        <v>0.5240911928450201</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2081329690118836</v>
+        <v>0.2043255374262954</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2992820114139295</v>
+        <v>0.2956800995620901</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4214370189227407</v>
+        <v>0.4411056762990094</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2914902671089531</v>
+        <v>0.2956437368257786</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.674852979368879</v>
+        <v>0.7007046468482006</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6532272585452188</v>
+        <v>0.6337004343771675</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4664962573967182</v>
+        <v>0.4652734444780185</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7914349735094868</v>
+        <v>0.7724826667980755</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9440763993691055</v>
+        <v>0.9445270826000998</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3229405588364612</v>
+        <v>0.3197453264154919</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.644777459723814</v>
+        <v>0.6532242738680782</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.7055164648097849</v>
+        <v>0.7178984126937379</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3793668305725864</v>
+        <v>0.3847518003290993</v>
       </c>
     </row>
     <row r="16">
@@ -1091,7 +1091,7 @@
         <v>0.5609425123724595</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.3597364039759727</v>
+        <v>0.3597364039759726</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.6158503144152803</v>
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5051888680355084</v>
+        <v>0.501643472450912</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4412886803068172</v>
+        <v>0.450235964218026</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3963118361832785</v>
+        <v>0.3964474568961956</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5072840622761006</v>
+        <v>0.5280863229691877</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.4577022590716825</v>
+        <v>0.4552417301709759</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3265747761695599</v>
+        <v>0.3273114334350443</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.550433936125643</v>
+        <v>0.5437987943811161</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4835156529456192</v>
+        <v>0.4754621828055147</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3722699436486838</v>
+        <v>0.3734762973712306</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7122665810086291</v>
+        <v>0.70109128309333</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6050252192863329</v>
+        <v>0.610440018353553</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.468460446127488</v>
+        <v>0.4699869469494313</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7170285641097613</v>
+        <v>0.722748308415596</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6587974738730985</v>
+        <v>0.6550825714658608</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3926935352876327</v>
+        <v>0.3919247742944416</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6833501931408523</v>
+        <v>0.6829659587101463</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6023928824593722</v>
+        <v>0.6019231769977448</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4207251285354597</v>
+        <v>0.4227791098082529</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>11199</v>
+        <v>11601</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>16556</v>
+        <v>16570</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>18902</v>
+        <v>18698</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>13673</v>
+        <v>13682</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>13501</v>
+        <v>13438</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>36217</v>
+        <v>36683</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>28715</v>
+        <v>28905</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>33836</v>
+        <v>34340</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>58901</v>
+        <v>60384</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>20237</v>
+        <v>20216</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>29800</v>
+        <v>29589</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>32475</v>
+        <v>32456</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>24942</v>
+        <v>25104</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>25697</v>
+        <v>25523</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>50227</v>
+        <v>51744</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>43166</v>
+        <v>42905</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>52302</v>
+        <v>51816</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>79287</v>
+        <v>79703</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>15620</v>
+        <v>16029</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>16099</v>
+        <v>16029</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>61586</v>
+        <v>60505</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>16888</v>
+        <v>16631</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>5886</v>
+        <v>6329</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>49353</v>
+        <v>49880</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>36729</v>
+        <v>37032</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>26365</v>
+        <v>26358</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>115831</v>
+        <v>116021</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>27341</v>
+        <v>27584</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>28631</v>
+        <v>28268</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>82167</v>
+        <v>81803</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>27137</v>
+        <v>27345</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>18181</v>
+        <v>18342</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>67639</v>
+        <v>68039</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>52342</v>
+        <v>51809</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>43737</v>
+        <v>42776</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>143451</v>
+        <v>143972</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>12151</v>
+        <v>11459</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>13646</v>
+        <v>13544</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>65613</v>
+        <v>64150</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>8248</v>
+        <v>7792</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>11334</v>
+        <v>11792</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>41235</v>
+        <v>40405</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>22449</v>
+        <v>22968</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>29065</v>
+        <v>28823</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>112249</v>
+        <v>110719</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>22618</v>
+        <v>22565</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>25669</v>
+        <v>25684</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>89247</v>
+        <v>88678</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>18442</v>
+        <v>17895</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>23138</v>
+        <v>23117</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>58046</v>
+        <v>58275</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>38351</v>
+        <v>38000</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>45530</v>
+        <v>45497</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>142359</v>
+        <v>140183</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5085</v>
+        <v>5174</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>11119</v>
+        <v>10924</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>59909</v>
+        <v>60317</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>5170</v>
+        <v>5229</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>9981</v>
+        <v>10243</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>29865</v>
+        <v>29318</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>12988</v>
+        <v>12832</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>23840</v>
+        <v>24952</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>94628</v>
+        <v>95976</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>16407</v>
+        <v>17036</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>24184</v>
+        <v>23461</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>84504</v>
+        <v>84282</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>15105</v>
+        <v>14744</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>18452</v>
+        <v>18461</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>46338</v>
+        <v>45880</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>27982</v>
+        <v>28349</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>39910</v>
+        <v>40610</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>123155</v>
+        <v>124904</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>55250</v>
+        <v>54863</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>69706</v>
+        <v>71119</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>224759</v>
+        <v>224836</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>54255</v>
+        <v>56479</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>53151</v>
+        <v>52865</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>171192</v>
+        <v>171579</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>119069</v>
+        <v>117633</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>132525</v>
+        <v>130318</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>406270</v>
+        <v>407587</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>77898</v>
+        <v>76676</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>95570</v>
+        <v>96425</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>265677</v>
+        <v>266542</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>76687</v>
+        <v>77299</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>76504</v>
+        <v>76072</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>205852</v>
+        <v>205449</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>147821</v>
+        <v>147738</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>165107</v>
+        <v>164979</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>459151</v>
+        <v>461393</v>
       </c>
     </row>
     <row r="24">
